--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -102,46 +102,46 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>DJ</t>
@@ -303,7 +303,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SN</t>
@@ -426,7 +426,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -986,17 +986,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1070,13 +1066,17 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHIS 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dhis2.org/deployments</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,21 @@
     <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/Angola:Health_information,_research,_evidence_and_knowledge</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -63,37 +96,58 @@
     <t xml:space="preserve">Functioning</t>
   </si>
   <si>
-    <t xml:space="preserve">DHIS 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dhis2.org/deployments</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -102,286 +156,232 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -914,53 +914,53 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -970,16 +970,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -990,10 +990,10 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -1006,17 +1006,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1026,17 +1022,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1046,10 +1038,10 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1062,10 +1054,10 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1081,10 +1073,14 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1094,16 +1090,16 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1114,10 +1110,10 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -1135,8 +1131,12 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1146,10 +1146,10 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1162,10 +1162,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1178,10 +1178,10 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1199,12 +1199,8 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1219,12 +1215,8 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1234,13 +1226,17 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1250,13 +1246,17 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1266,17 +1266,13 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1286,16 +1282,16 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1306,13 +1302,17 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1327,12 +1327,8 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1342,13 +1338,17 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1358,10 +1358,10 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1374,10 +1374,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1395,8 +1395,12 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1406,10 +1410,10 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1422,10 +1426,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -1438,10 +1442,10 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -1454,17 +1458,13 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1474,16 +1474,16 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1494,16 +1494,16 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1514,16 +1514,16 @@
         <v>90</v>
       </c>
       <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1534,16 +1534,16 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1554,16 +1554,16 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1574,10 +1574,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -1590,16 +1590,16 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1615,12 +1615,8 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1630,16 +1626,16 @@
         <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1650,10 +1646,10 @@
         <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1666,16 +1662,16 @@
         <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1689,10 +1685,14 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1705,10 +1705,14 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1718,10 +1722,10 @@
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -1734,16 +1738,16 @@
         <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1757,10 +1761,14 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1775,12 +1783,8 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
+      <c r="E52"/>
+      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1790,16 +1794,16 @@
         <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1810,17 +1814,13 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1830,16 +1830,16 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1850,16 +1850,16 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -33,6 +33,24 @@
     <t xml:space="preserve">source-link</t>
   </si>
   <si>
+    <t xml:space="preserve">DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHIS 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dhis2.org/deployments</t>
+  </si>
+  <si>
     <t xml:space="preserve">AO</t>
   </si>
   <si>
@@ -51,6 +69,21 @@
     <t xml:space="preserve">http://www.aho.afro.who.int/profiles_information/index.php/Angola:Health_information,_research,_evidence_and_knowledge</t>
   </si>
   <si>
+    <t xml:space="preserve">BJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
     <t xml:space="preserve">BF</t>
   </si>
   <si>
@@ -63,37 +96,58 @@
     <t xml:space="preserve">Functioning</t>
   </si>
   <si>
-    <t xml:space="preserve">DHIS 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.dhis2.org/deployments</t>
-  </si>
-  <si>
     <t xml:space="preserve">BI</t>
   </si>
   <si>
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
+    <t xml:space="preserve">CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÃ´te d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">CD</t>
@@ -102,286 +156,232 @@
     <t xml:space="preserve">DRC</t>
   </si>
   <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
     <t xml:space="preserve">EG</t>
   </si>
   <si>
     <t xml:space="preserve">Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">GQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
     <t xml:space="preserve">EH</t>
   </si>
   <si>
     <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
   </si>
   <si>
     <t xml:space="preserve">ZM</t>
@@ -914,53 +914,53 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -970,16 +970,16 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -993,10 +993,14 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1006,17 +1010,13 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1026,17 +1026,13 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1046,10 +1042,10 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -1062,10 +1058,10 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1078,10 +1074,10 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -1094,16 +1090,16 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1114,10 +1110,10 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -1135,8 +1131,12 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16"/>
-      <c r="F16"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1146,10 +1146,10 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -1162,10 +1162,10 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -1178,10 +1178,10 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -1199,12 +1199,8 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20"/>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1219,12 +1215,8 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
+      <c r="E21"/>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1234,13 +1226,17 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1250,13 +1246,17 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1266,17 +1266,13 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1286,16 +1282,16 @@
         <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1306,13 +1302,17 @@
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1327,12 +1327,8 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
+      <c r="E27"/>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1342,13 +1338,17 @@
         <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1358,10 +1358,10 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1374,10 +1374,10 @@
         <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1395,8 +1395,12 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31"/>
-      <c r="F31"/>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1406,10 +1410,10 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1422,10 +1426,10 @@
         <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -1438,10 +1442,10 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -1454,17 +1458,13 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1474,16 +1474,16 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1494,16 +1494,16 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1514,16 +1514,16 @@
         <v>90</v>
       </c>
       <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" t="s">
-        <v>24</v>
-      </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1534,16 +1534,16 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -1554,16 +1554,16 @@
         <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1574,10 +1574,10 @@
         <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -1590,16 +1590,16 @@
         <v>98</v>
       </c>
       <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>20</v>
       </c>
-      <c r="D42" t="s">
-        <v>24</v>
-      </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1615,12 +1615,8 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
+      <c r="E43"/>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1630,16 +1626,16 @@
         <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1650,10 +1646,10 @@
         <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1666,16 +1662,16 @@
         <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1689,10 +1685,14 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47"/>
-      <c r="F47"/>
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1705,10 +1705,14 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48"/>
-      <c r="F48"/>
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1718,10 +1722,10 @@
         <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -1734,16 +1738,16 @@
         <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
@@ -1757,10 +1761,14 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51"/>
-      <c r="F51"/>
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
@@ -1775,12 +1783,8 @@
       <c r="D52" t="s">
         <v>15</v>
       </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
+      <c r="E52"/>
+      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1790,16 +1794,16 @@
         <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54">
@@ -1810,17 +1814,13 @@
         <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1830,16 +1830,16 @@
         <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -1850,16 +1850,16 @@
         <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -15,10 +15,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+    <t xml:space="preserve">di_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity_name</t>
   </si>
   <si>
     <t xml:space="preserve">colour</t>
@@ -27,10 +27,10 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
-    <t xml:space="preserve">source-title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source-link</t>
+    <t xml:space="preserve">source_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source_link</t>
   </si>
   <si>
     <t xml:space="preserve">DZ</t>
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Algeria</t>
   </si>
   <si>
-    <t xml:space="preserve">Orange</t>
+    <t xml:space="preserve">orange</t>
   </si>
   <si>
     <t xml:space="preserve">Partial</t>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Angola</t>
   </si>
   <si>
-    <t xml:space="preserve">Grey</t>
+    <t xml:space="preserve">grey</t>
   </si>
   <si>
     <t xml:space="preserve">No information</t>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">green</t>
   </si>
   <si>
     <t xml:space="preserve">Functioning</t>
@@ -102,46 +102,46 @@
     <t xml:space="preserve">Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">CM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
     <t xml:space="preserve">CI</t>
   </si>
   <si>
-    <t xml:space="preserve">CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">DJ</t>
@@ -399,37 +399,37 @@
     <t xml:space="preserve">Name: health-mis</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: A national administrative system recording data from all health facilities on staff, logistics, performance, morbidity etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units of measure: NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: Various, including system providers such as DHIS.</t>
+    <t xml:space="preserve">Description: A national administrative system recording data from all health facilities on staff, logistics, performance, morbidity etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measure:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source-link: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -782,15 +782,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -804,31 +808,26 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -990,17 +989,13 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1074,13 +1069,17 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 77</t>
+    <t xml:space="preserve">Source: 78</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 78</t>
+    <t xml:space="preserve">Source: 80</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 77</t>
+    <t xml:space="preserve">Source: 80</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/health-mis/health-mis.xlsx
+++ b/user-data/health-mis/health-mis.xlsx
@@ -405,7 +405,7 @@
     <t xml:space="preserve">Units of measure:  </t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 80</t>
+    <t xml:space="preserve">Source: 79</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
